--- a/python/ilin/pert Error t1=6 t2=5.xlsx
+++ b/python/ilin/pert Error t1=6 t2=5.xlsx
@@ -473,13 +473,13 @@
         <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>-1.43e-05</v>
+        <v>-0.0689</v>
       </c>
       <c r="E2" t="n">
-        <v>5.99</v>
+        <v>5.94</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.17</v>
+        <v>-1.07</v>
       </c>
     </row>
     <row r="3">
@@ -492,16 +492,16 @@
         <v>5</v>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>4.82</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.000797</v>
+        <v>-3.67</v>
       </c>
       <c r="E3" t="n">
-        <v>5.02</v>
+        <v>5.12</v>
       </c>
       <c r="F3" t="n">
-        <v>0.375</v>
+        <v>2.41</v>
       </c>
     </row>
     <row r="4">
@@ -517,13 +517,13 @@
         <v>0.0001</v>
       </c>
       <c r="D4" t="n">
-        <v>-2.68e-05</v>
+        <v>0.000829</v>
       </c>
       <c r="E4" t="n">
-        <v>0.000101</v>
+        <v>0.0001</v>
       </c>
       <c r="F4" t="n">
-        <v>0.852</v>
+        <v>0.225</v>
       </c>
     </row>
     <row r="5">
@@ -539,13 +539,13 @@
         <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>-2.99e-07</v>
+        <v>-1.11e-14</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>-1.11e-14</v>
+        <v>-8.35e-05</v>
       </c>
     </row>
     <row r="6">
@@ -558,7 +558,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>4.63e-06</v>
+        <v>141000</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -566,7 +566,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>204000</v>
+        <v>102000</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -584,7 +584,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>2.36e-08</v>
+        <v>720</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1040</v>
+        <v>521</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
